--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="185">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,460 +74,502 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.992+/-0.0</t>
-  </si>
-  <si>
-    <t>0.821+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.993+/-0.001</t>
+  </si>
+  <si>
+    <t>0.816+/-0.0</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.993+/-0.006</t>
+  </si>
+  <si>
+    <t>0.779+/-0.011</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.993+/-0.008</t>
+  </si>
+  <si>
+    <t>0.882+/-0.016</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.691+/-0.002</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.68+/-0.002</t>
+  </si>
+  <si>
+    <t>0.679+/-0.016</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.724+/-0.002</t>
+  </si>
+  <si>
+    <t>0.723+/-0.014</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.194+/-0.026</t>
+  </si>
+  <si>
+    <t>0.658+/-0.006</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.626+/-0.006</t>
+  </si>
+  <si>
+    <t>0.624+/-0.011</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.79+/-0.004</t>
+  </si>
+  <si>
+    <t>0.786+/-0.009</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676+/-0.001</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.673+/-0.002</t>
+  </si>
+  <si>
+    <t>0.673+/-0.017</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.685+/-0.003</t>
+  </si>
+  <si>
+    <t>0.686+/-0.013</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.834+/-0.005</t>
+  </si>
+  <si>
+    <t>0.803+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.828+/-0.009</t>
+  </si>
+  <si>
+    <t>0.797+/-0.012</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.842+/-0.017</t>
+  </si>
+  <si>
+    <t>0.812+/-0.032</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>12.834+/-4.064</t>
+  </si>
+  <si>
+    <t>0.866+/-0.003</t>
+  </si>
+  <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.855+/-0.005</t>
+  </si>
+  <si>
+    <t>0.792+/-0.016</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.881+/-0.008</t>
+  </si>
+  <si>
+    <t>0.813+/-0.019</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.202+/-0.01</t>
+  </si>
+  <si>
+    <t>0.856+/-0.004</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.781</t>
+  </si>
+  <si>
+    <t>0.846+/-0.007</t>
+  </si>
+  <si>
+    <t>0.791+/-0.012</t>
+  </si>
+  <si>
+    <t>0.871+/-0.011</t>
+  </si>
+  <si>
+    <t>0.815+/-0.017</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.296+/-0.018</t>
+  </si>
+  <si>
+    <t>0.793+/-0.001</t>
+  </si>
+  <si>
+    <t>0.776+/-0.0</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.756+/-0.002</t>
+  </si>
+  <si>
+    <t>0.742+/-0.011</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.865+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.008</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>58.092+/-3.901</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.996+/-0.0</t>
+  </si>
+  <si>
+    <t>0.859+/-0.0</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.788+/-0.009</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.984+/-0.0</t>
-  </si>
-  <si>
-    <t>0.877+/-0.01</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.054+/-0.004</t>
-  </si>
-  <si>
-    <t>0.695+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.683+/-0.002</t>
-  </si>
-  <si>
-    <t>0.682+/-0.016</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.729+/-0.002</t>
-  </si>
-  <si>
-    <t>0.727+/-0.011</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.169+/-0.015</t>
-  </si>
-  <si>
-    <t>0.663+/-0.005</t>
-  </si>
-  <si>
-    <t>0.663+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.629+/-0.006</t>
-  </si>
-  <si>
-    <t>0.629+/-0.013</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.796+/-0.005</t>
-  </si>
-  <si>
     <t>0.796+/-0.012</t>
   </si>
   <si>
-    <t>0.782</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.677+/-0.001</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.675+/-0.002</t>
-  </si>
-  <si>
-    <t>0.674+/-0.018</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.684+/-0.006</t>
-  </si>
-  <si>
-    <t>0.685+/-0.023</t>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.991+/-0.0</t>
+  </si>
+  <si>
+    <t>0.966+/-0.004</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.085+/-0.007</t>
+  </si>
+  <si>
+    <t>0.658+/-0.001</t>
+  </si>
+  <si>
+    <t>0.658+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.655+/-0.001</t>
+  </si>
+  <si>
+    <t>0.655+/-0.014</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.669+/-0.002</t>
+  </si>
+  <si>
+    <t>0.668+/-0.02</t>
   </si>
   <si>
     <t>0.673</t>
   </si>
   <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.831+/-0.008</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
+    <t>0.102+/-0.008</t>
+  </si>
+  <si>
+    <t>0.611+/-0.007</t>
+  </si>
+  <si>
+    <t>0.61+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.599+/-0.009</t>
+  </si>
+  <si>
+    <t>0.598+/-0.019</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.677+/-0.008</t>
+  </si>
+  <si>
+    <t>0.675+/-0.016</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.592+/-0.002</t>
+  </si>
+  <si>
+    <t>0.592+/-0.0</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.588+/-0.001</t>
+  </si>
+  <si>
+    <t>0.587+/-0.012</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.618+/-0.002</t>
+  </si>
+  <si>
+    <t>0.617+/-0.017</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.862+/-0.007</t>
+  </si>
+  <si>
+    <t>0.843+/-0.0</t>
+  </si>
+  <si>
+    <t>0.813</t>
+  </si>
+  <si>
+    <t>0.846+/-0.014</t>
+  </si>
+  <si>
+    <t>0.825+/-0.014</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.886+/-0.018</t>
+  </si>
+  <si>
+    <t>0.871+/-0.013</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>10.551+/-6.607</t>
+  </si>
+  <si>
+    <t>0.882+/-0.004</t>
+  </si>
+  <si>
+    <t>0.838+/-0.0</t>
   </si>
   <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>0.82+/-0.024</t>
-  </si>
-  <si>
-    <t>0.792+/-0.021</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.85+/-0.035</t>
-  </si>
-  <si>
-    <t>0.818+/-0.043</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>6.432+/-1.028</t>
-  </si>
-  <si>
-    <t>0.874+/-0.006</t>
-  </si>
-  <si>
-    <t>0.795+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.868+/-0.008</t>
-  </si>
-  <si>
-    <t>0.789+/-0.01</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.884+/-0.019</t>
-  </si>
-  <si>
-    <t>0.807+/-0.015</t>
-  </si>
-  <si>
-    <t>0.129+/-0.01</t>
-  </si>
-  <si>
-    <t>0.857+/-0.005</t>
-  </si>
-  <si>
-    <t>0.792+/-0.0</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.853+/-0.016</t>
-  </si>
-  <si>
-    <t>0.787+/-0.022</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.865+/-0.022</t>
-  </si>
-  <si>
-    <t>0.801+/-0.024</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.183+/-0.007</t>
-  </si>
-  <si>
-    <t>0.789+/-0.001</t>
-  </si>
-  <si>
-    <t>0.772+/-0.0</t>
-  </si>
-  <si>
-    <t>0.754+/-0.002</t>
-  </si>
-  <si>
-    <t>0.74+/-0.011</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.859+/-0.003</t>
-  </si>
-  <si>
-    <t>0.84+/-0.009</t>
-  </si>
-  <si>
-    <t>0.814</t>
-  </si>
-  <si>
-    <t>56.523+/-12.05</t>
-  </si>
-  <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862+/-0.0</t>
-  </si>
-  <si>
-    <t>0.765</t>
-  </si>
-  <si>
-    <t>0.8+/-0.01</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.993+/-0.0</t>
-  </si>
-  <si>
-    <t>0.967+/-0.006</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.081+/-0.003</t>
-  </si>
-  <si>
-    <t>0.654+/-0.001</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.651+/-0.001</t>
-  </si>
-  <si>
-    <t>0.65+/-0.012</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.664+/-0.002</t>
-  </si>
-  <si>
-    <t>0.663+/-0.015</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.063+/-0.005</t>
-  </si>
-  <si>
-    <t>0.634+/-0.004</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.63+/-0.006</t>
-  </si>
-  <si>
-    <t>0.63+/-0.015</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>0.649+/-0.004</t>
-  </si>
-  <si>
-    <t>0.649+/-0.019</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.591+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.587+/-0.002</t>
-  </si>
-  <si>
-    <t>0.586+/-0.013</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.614+/-0.004</t>
-  </si>
-  <si>
-    <t>0.612+/-0.017</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.853+/-0.003</t>
+    <t>0.87+/-0.007</t>
+  </si>
+  <si>
+    <t>0.825+/-0.009</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.899+/-0.012</t>
+  </si>
+  <si>
+    <t>0.858+/-0.019</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.239+/-0.004</t>
+  </si>
+  <si>
+    <t>0.875+/-0.006</t>
   </si>
   <si>
     <t>0.834+/-0.0</t>
   </si>
   <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.846+/-0.015</t>
-  </si>
-  <si>
-    <t>0.828+/-0.019</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.865+/-0.021</t>
-  </si>
-  <si>
-    <t>0.846+/-0.024</t>
-  </si>
-  <si>
-    <t>7.85+/-2.863</t>
-  </si>
-  <si>
-    <t>0.885+/-0.002</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.86+/-0.005</t>
-  </si>
-  <si>
-    <t>0.814+/-0.012</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.919+/-0.005</t>
-  </si>
-  <si>
-    <t>0.873+/-0.016</t>
-  </si>
-  <si>
-    <t>0.796</t>
-  </si>
-  <si>
-    <t>0.164+/-0.011</t>
-  </si>
-  <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.853+/-0.007</t>
-  </si>
-  <si>
-    <t>0.81+/-0.008</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.917+/-0.008</t>
-  </si>
-  <si>
-    <t>0.872+/-0.02</t>
-  </si>
-  <si>
-    <t>0.262+/-0.025</t>
-  </si>
-  <si>
-    <t>0.838+/-0.001</t>
-  </si>
-  <si>
-    <t>0.826+/-0.0</t>
-  </si>
-  <si>
-    <t>0.816</t>
-  </si>
-  <si>
-    <t>0.843+/-0.002</t>
-  </si>
-  <si>
-    <t>0.832+/-0.012</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.829+/-0.002</t>
-  </si>
-  <si>
-    <t>0.818+/-0.01</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>74.884+/-12.415</t>
+    <t>0.857+/-0.011</t>
+  </si>
+  <si>
+    <t>0.816+/-0.017</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.902+/-0.014</t>
+  </si>
+  <si>
+    <t>0.863+/-0.019</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.376+/-0.004</t>
+  </si>
+  <si>
+    <t>0.841+/-0.001</t>
+  </si>
+  <si>
+    <t>0.829+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.847+/-0.001</t>
+  </si>
+  <si>
+    <t>0.834+/-0.01</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.832+/-0.002</t>
+  </si>
+  <si>
+    <t>0.82+/-0.016</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>84.084+/-7.907</t>
   </si>
 </sst>
 </file>
@@ -928,28 +970,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -957,31 +999,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -989,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1021,31 +1063,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1053,31 +1095,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1085,31 +1127,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1117,31 +1159,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1149,31 +1191,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1181,31 +1223,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1213,31 +1255,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1287,31 +1329,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>166</v>
+      </c>
+      <c r="J2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1319,31 +1361,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>167</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1351,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1383,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>109</v>
@@ -1392,22 +1434,22 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1415,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
@@ -1424,22 +1466,22 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1447,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>111</v>
@@ -1456,22 +1498,22 @@
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="J7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1479,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -1488,22 +1530,22 @@
         <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>171</v>
+      </c>
+      <c r="J8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1511,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
@@ -1520,22 +1562,22 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1543,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -1552,22 +1594,22 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>173</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1575,31 +1617,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="J11" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\R_Gonz\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FBC911-CA49-4FD4-AABA-A1242E2A44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_fail" sheetId="1" r:id="rId1"/>
     <sheet name="final_gifted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -575,8 +581,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,11 +645,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -685,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,9 +731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,6 +783,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,14 +976,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -994,7 +1052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1084,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1148,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1154,7 +1212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1288,14 +1346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1446,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1478,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1510,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1542,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1574,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1606,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,7 +1638,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +1670,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
